--- a/doc/05_ファイル構成一覧表_川崎.java.xlsx
+++ b/doc/05_ファイル構成一覧表_川崎.java.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB36D3D-04F1-49AC-A066-9B3855B92D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C81AA-4F11-44DD-BA1B-178FC362FA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -621,6 +621,18 @@
     <rPh sb="8" eb="10">
       <t>テンキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1065,7 +1077,9 @@
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -1084,7 +1098,9 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -1122,7 +1138,9 @@
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -1141,7 +1159,9 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -1160,7 +1180,9 @@
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1179,7 +1201,9 @@
       <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1198,7 +1222,9 @@
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1217,7 +1243,9 @@
       <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1236,7 +1264,9 @@
       <c r="F12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1255,7 +1285,9 @@
       <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1274,7 +1306,9 @@
       <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1293,7 +1327,9 @@
       <c r="F15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1312,7 +1348,9 @@
       <c r="F16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1331,7 +1369,9 @@
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1350,7 +1390,9 @@
       <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1369,7 +1411,9 @@
       <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1407,7 +1451,9 @@
       <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
@@ -1426,7 +1472,9 @@
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1445,7 +1493,9 @@
       <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -1464,7 +1514,9 @@
       <c r="F24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1483,7 +1535,9 @@
       <c r="F25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1502,7 +1556,9 @@
       <c r="F26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1521,7 +1577,9 @@
       <c r="F27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -1540,7 +1598,9 @@
       <c r="F28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1559,7 +1619,9 @@
       <c r="F29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1578,7 +1640,9 @@
       <c r="F30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1597,7 +1661,9 @@
       <c r="F31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -1616,7 +1682,9 @@
       <c r="F32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -1635,7 +1703,9 @@
       <c r="F33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -1654,7 +1724,9 @@
       <c r="F34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -1673,7 +1745,9 @@
       <c r="F35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -1692,7 +1766,9 @@
       <c r="F36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -1711,7 +1787,9 @@
       <c r="F37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
@@ -2126,21 +2204,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2311,10 +2374,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2337,20 +2426,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_川崎.java.xlsx
+++ b/doc/05_ファイル構成一覧表_川崎.java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C81AA-4F11-44DD-BA1B-178FC362FA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C79195B-F886-4332-83BD-7BF23E82112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -633,6 +633,48 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>久保さん</t>
+    <rPh sb="0" eb="2">
+      <t>クボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石倉</t>
+    <rPh sb="0" eb="2">
+      <t>イシクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森本</t>
+    <rPh sb="0" eb="2">
+      <t>モリモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前田さん</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下日向さん</t>
+    <rPh sb="0" eb="3">
+      <t>シモヒナタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木さん</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1027,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G71"/>
+  <dimension ref="B2:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1040,7 +1082,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1080,8 +1122,17 @@
       <c r="G3" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
         <v>2</v>
@@ -1101,8 +1152,17 @@
       <c r="G4" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1120,8 +1180,17 @@
         <v>15</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="I5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1142,7 +1211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1160,10 +1229,10 @@
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1181,10 +1250,10 @@
         <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1202,10 +1271,10 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1226,7 +1295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1247,7 +1316,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1268,7 +1337,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1289,7 +1358,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1307,10 +1376,10 @@
         <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1328,10 +1397,10 @@
         <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1349,7 +1418,7 @@
         <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1473,7 +1542,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1494,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1515,7 +1584,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1641,7 +1710,7 @@
         <v>63</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1704,7 +1773,7 @@
         <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1725,7 +1794,7 @@
         <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1846,7 +1915,9 @@
       <c r="F40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2204,6 +2275,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2374,36 +2460,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2426,9 +2486,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_川崎.java.xlsx
+++ b/doc/05_ファイル構成一覧表_川崎.java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C79195B-F886-4332-83BD-7BF23E82112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9E055-4965-431B-8F06-D6A400E215EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="110">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -674,6 +674,52 @@
     <t>鈴木さん</t>
     <rPh sb="0" eb="2">
       <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A　石倉</t>
+    <rPh sb="2" eb="4">
+      <t>イシクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A　久保さん</t>
+    <rPh sb="2" eb="4">
+      <t>クボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B　前田さん</t>
+    <rPh sb="2" eb="4">
+      <t>マエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B　森本</t>
+    <rPh sb="2" eb="4">
+      <t>モリモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C　鈴木さん</t>
+    <rPh sb="2" eb="4">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C　下日向さん</t>
+    <rPh sb="2" eb="5">
+      <t>シモヒナタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1120,7 +1166,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
         <v>94</v>
@@ -1134,7 +1180,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1150,7 +1196,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
         <v>95</v>
@@ -1164,7 +1210,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1174,12 +1220,14 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I5" t="s">
         <v>96</v>
       </c>
@@ -1192,7 +1240,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1202,115 +1250,115 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>94</v>
@@ -1318,20 +1366,20 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>94</v>
@@ -1339,20 +1387,20 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>94</v>
@@ -1360,133 +1408,133 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1496,16 +1544,18 @@
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1515,18 +1565,18 @@
         <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1535,19 +1585,19 @@
       <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1556,19 +1606,19 @@
       <c r="D23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
+      <c r="E23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1577,11 +1627,11 @@
       <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>50</v>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>95</v>
@@ -1589,112 +1639,112 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1703,19 +1753,19 @@
       <c r="D30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>63</v>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1724,40 +1774,40 @@
       <c r="D31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>64</v>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1773,12 +1823,12 @@
         <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1794,12 +1844,12 @@
         <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1815,92 +1865,90 @@
         <v>77</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1910,18 +1958,16 @@
         <v>86</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1940,7 +1986,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>40</v>
       </c>
       <c r="C42" s="1"/>
@@ -1951,7 +1997,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>41</v>
       </c>
       <c r="C43" s="1"/>
@@ -1962,7 +2008,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>42</v>
       </c>
       <c r="C44" s="1"/>
@@ -1973,7 +2019,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>43</v>
       </c>
       <c r="C45" s="1"/>
@@ -1984,7 +2030,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>44</v>
       </c>
       <c r="C46" s="1"/>
@@ -1995,7 +2041,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>45</v>
       </c>
       <c r="C47" s="1"/>
@@ -2006,7 +2052,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>46</v>
       </c>
       <c r="C48" s="1"/>
@@ -2017,7 +2063,7 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>47</v>
       </c>
       <c r="C49" s="1"/>
@@ -2028,7 +2074,7 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>48</v>
       </c>
       <c r="C50" s="1"/>
@@ -2039,7 +2085,7 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>49</v>
       </c>
       <c r="C51" s="1"/>
@@ -2050,7 +2096,7 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>50</v>
       </c>
       <c r="C52" s="1"/>
@@ -2061,7 +2107,7 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>51</v>
       </c>
       <c r="C53" s="1"/>
@@ -2072,7 +2118,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>52</v>
       </c>
       <c r="C54" s="1"/>
@@ -2083,7 +2129,7 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>53</v>
       </c>
       <c r="C55" s="1"/>
@@ -2094,7 +2140,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>54</v>
       </c>
       <c r="C56" s="1"/>
@@ -2105,7 +2151,7 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>55</v>
       </c>
       <c r="C57" s="1"/>
@@ -2116,7 +2162,7 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>56</v>
       </c>
       <c r="C58" s="1"/>
@@ -2127,7 +2173,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>57</v>
       </c>
       <c r="C59" s="1"/>
@@ -2138,7 +2184,7 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>58</v>
       </c>
       <c r="C60" s="1"/>
@@ -2149,7 +2195,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>59</v>
       </c>
       <c r="C61" s="1"/>
@@ -2160,7 +2206,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>60</v>
       </c>
       <c r="C62" s="1"/>
@@ -2171,7 +2217,7 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>61</v>
       </c>
       <c r="C63" s="1"/>
@@ -2182,7 +2228,7 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>62</v>
       </c>
       <c r="C64" s="1"/>
@@ -2193,7 +2239,7 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>63</v>
       </c>
       <c r="C65" s="1"/>
@@ -2204,7 +2250,7 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>64</v>
       </c>
       <c r="C66" s="1"/>
@@ -2215,7 +2261,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW()-2</f>
         <v>65</v>
       </c>
       <c r="C67" s="1"/>
@@ -2226,7 +2272,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <f t="shared" ref="B68:B71" si="1">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>66</v>
       </c>
       <c r="C68" s="1"/>
@@ -2237,7 +2283,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>67</v>
       </c>
       <c r="C69" s="1"/>
@@ -2248,7 +2294,7 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>68</v>
       </c>
       <c r="C70" s="1"/>
@@ -2259,7 +2305,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW()-2</f>
         <v>69</v>
       </c>
       <c r="C71" s="1"/>
@@ -2269,27 +2315,15 @@
       <c r="G71" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G71">
+    <sortCondition ref="G2:G71"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2460,10 +2494,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2486,20 +2546,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_川崎.java.xlsx
+++ b/doc/05_ファイル構成一覧表_川崎.java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A9E055-4965-431B-8F06-D6A400E215EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C79195B-F886-4332-83BD-7BF23E82112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -674,52 +674,6 @@
     <t>鈴木さん</t>
     <rPh sb="0" eb="2">
       <t>スズキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A　石倉</t>
-    <rPh sb="2" eb="4">
-      <t>イシクラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A　久保さん</t>
-    <rPh sb="2" eb="4">
-      <t>クボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B　前田さん</t>
-    <rPh sb="2" eb="4">
-      <t>マエダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B　森本</t>
-    <rPh sb="2" eb="4">
-      <t>モリモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C　鈴木さん</t>
-    <rPh sb="2" eb="4">
-      <t>スズキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C　下日向さん</t>
-    <rPh sb="2" eb="5">
-      <t>シモヒナタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1166,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
         <v>94</v>
@@ -1180,7 +1134,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1196,7 +1150,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
         <v>95</v>
@@ -1210,7 +1164,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1220,14 +1174,12 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="I5" t="s">
         <v>96</v>
       </c>
@@ -1240,7 +1192,7 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1250,115 +1202,115 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>94</v>
@@ -1366,20 +1318,20 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>94</v>
@@ -1387,20 +1339,20 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>94</v>
@@ -1408,133 +1360,133 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1544,18 +1496,16 @@
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1565,18 +1515,18 @@
         <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1585,19 +1535,19 @@
       <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>61</v>
+      <c r="E22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1606,19 +1556,19 @@
       <c r="D23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>62</v>
+      <c r="E23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1627,11 +1577,11 @@
       <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>63</v>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>95</v>
@@ -1639,112 +1589,112 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1753,19 +1703,19 @@
       <c r="D30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
+      <c r="E30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1774,40 +1724,40 @@
       <c r="D31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
+      <c r="E31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1823,12 +1773,12 @@
         <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1844,12 +1794,12 @@
         <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1865,90 +1815,92 @@
         <v>77</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1958,16 +1910,18 @@
         <v>86</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1986,7 +1940,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="1"/>
@@ -1997,7 +1951,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C43" s="1"/>
@@ -2008,7 +1962,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C44" s="1"/>
@@ -2019,7 +1973,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C45" s="1"/>
@@ -2030,7 +1984,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C46" s="1"/>
@@ -2041,7 +1995,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C47" s="1"/>
@@ -2052,7 +2006,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C48" s="1"/>
@@ -2063,7 +2017,7 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C49" s="1"/>
@@ -2074,7 +2028,7 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C50" s="1"/>
@@ -2085,7 +2039,7 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C51" s="1"/>
@@ -2096,7 +2050,7 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C52" s="1"/>
@@ -2107,7 +2061,7 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C53" s="1"/>
@@ -2118,7 +2072,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C54" s="1"/>
@@ -2129,7 +2083,7 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="C55" s="1"/>
@@ -2140,7 +2094,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C56" s="1"/>
@@ -2151,7 +2105,7 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C57" s="1"/>
@@ -2162,7 +2116,7 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C58" s="1"/>
@@ -2173,7 +2127,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C59" s="1"/>
@@ -2184,7 +2138,7 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C60" s="1"/>
@@ -2195,7 +2149,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C61" s="1"/>
@@ -2206,7 +2160,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C62" s="1"/>
@@ -2217,7 +2171,7 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="C63" s="1"/>
@@ -2228,7 +2182,7 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C64" s="1"/>
@@ -2239,7 +2193,7 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C65" s="1"/>
@@ -2250,7 +2204,7 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C66" s="1"/>
@@ -2261,7 +2215,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C67" s="1"/>
@@ -2272,7 +2226,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B68:B71" si="1">ROW()-2</f>
         <v>66</v>
       </c>
       <c r="C68" s="1"/>
@@ -2283,7 +2237,7 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C69" s="1"/>
@@ -2294,7 +2248,7 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="C70" s="1"/>
@@ -2305,7 +2259,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C71" s="1"/>
@@ -2315,15 +2269,27 @@
       <c r="G71" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G71">
-    <sortCondition ref="G2:G71"/>
-  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2494,36 +2460,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2546,9 +2486,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_川崎.java.xlsx
+++ b/doc/05_ファイル構成一覧表_川崎.java.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C79195B-F886-4332-83BD-7BF23E82112F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67593E14-1AEB-488B-8F5B-3D89F94A7CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="15" yWindow="30" windowWidth="19770" windowHeight="10920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -674,6 +674,55 @@
     <t>鈴木さん</t>
     <rPh sb="0" eb="2">
       <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A　石倉</t>
+    <rPh sb="2" eb="4">
+      <t>イシクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A　久保さん</t>
+    <rPh sb="2" eb="4">
+      <t>クボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A　前田さん</t>
+    <rPh sb="2" eb="4">
+      <t>マエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B　前田さん</t>
+    <rPh sb="2" eb="4">
+      <t>マエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B　森本</t>
+    <rPh sb="2" eb="4">
+      <t>モリモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C　鈴木さん</t>
+    <rPh sb="2" eb="4">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C　下日向さん</t>
+    <rPh sb="2" eb="5">
+      <t>シモヒナタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1071,7 +1120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1104,7 +1155,7 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B3:B34" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1120,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
         <v>94</v>
@@ -1134,7 +1185,7 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1150,7 +1201,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
         <v>95</v>
@@ -1174,12 +1225,14 @@
         <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I5" t="s">
         <v>96</v>
       </c>
@@ -1202,13 +1255,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -1217,19 +1270,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -1238,19 +1291,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -1259,19 +1312,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -1280,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -1301,16 +1354,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>94</v>
@@ -1322,16 +1375,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>94</v>
@@ -1346,13 +1399,13 @@
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>94</v>
@@ -1367,16 +1420,16 @@
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -1388,16 +1441,16 @@
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -1409,16 +1462,16 @@
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1427,19 +1480,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1448,19 +1501,19 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1472,16 +1525,16 @@
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1496,12 +1549,14 @@
         <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1515,13 +1570,13 @@
         <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1535,14 +1590,14 @@
       <c r="D22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1556,14 +1611,14 @@
       <c r="D23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>12</v>
+      <c r="E23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1577,11 +1632,11 @@
       <c r="D24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>50</v>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>95</v>
@@ -1593,19 +1648,19 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1614,19 +1669,19 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1635,19 +1690,19 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1659,16 +1714,16 @@
         <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1680,16 +1735,16 @@
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1703,14 +1758,14 @@
       <c r="D30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>63</v>
+      <c r="E30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1724,14 +1779,14 @@
       <c r="D31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>64</v>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1743,16 +1798,16 @@
         <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1773,7 +1828,7 @@
         <v>74</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1794,12 +1849,12 @@
         <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B35:B71" si="1">ROW()-2</f>
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1815,92 +1870,88 @@
         <v>77</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1910,18 +1961,16 @@
         <v>86</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1940,7 +1989,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C42" s="1"/>
@@ -1951,7 +2000,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C43" s="1"/>
@@ -1962,7 +2011,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C44" s="1"/>
@@ -1973,7 +2022,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C45" s="1"/>
@@ -1984,7 +2033,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C46" s="1"/>
@@ -1995,7 +2044,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C47" s="1"/>
@@ -2006,7 +2055,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C48" s="1"/>
@@ -2017,7 +2066,7 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C49" s="1"/>
@@ -2028,7 +2077,7 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C50" s="1"/>
@@ -2039,7 +2088,7 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C51" s="1"/>
@@ -2050,7 +2099,7 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C52" s="1"/>
@@ -2061,7 +2110,7 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C53" s="1"/>
@@ -2072,7 +2121,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C54" s="1"/>
@@ -2083,7 +2132,7 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C55" s="1"/>
@@ -2094,7 +2143,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C56" s="1"/>
@@ -2105,7 +2154,7 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C57" s="1"/>
@@ -2116,7 +2165,7 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C58" s="1"/>
@@ -2127,7 +2176,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C59" s="1"/>
@@ -2138,7 +2187,7 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C60" s="1"/>
@@ -2149,7 +2198,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C61" s="1"/>
@@ -2160,7 +2209,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C62" s="1"/>
@@ -2171,7 +2220,7 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C63" s="1"/>
@@ -2182,7 +2231,7 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C64" s="1"/>
@@ -2193,7 +2242,7 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C65" s="1"/>
@@ -2204,7 +2253,7 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C66" s="1"/>
@@ -2215,7 +2264,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C67" s="1"/>
@@ -2226,7 +2275,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <f t="shared" ref="B68:B71" si="1">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C68" s="1"/>
@@ -2269,6 +2318,9 @@
       <c r="G71" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G71">
+    <sortCondition ref="G41:G71"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/05_ファイル構成一覧表_川崎.java.xlsx
+++ b/doc/05_ファイル構成一覧表_川崎.java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67593E14-1AEB-488B-8F5B-3D89F94A7CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DCEF9C-6B9C-410A-9614-E4895FA153BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="30" windowWidth="19770" windowHeight="10920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20205" windowHeight="10920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="109">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -450,19 +450,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーの更新・削除用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>V_updateDeleteServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>S_updateDeleteServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U_updateDeleteServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -723,6 +715,13 @@
     <t>C　下日向さん</t>
     <rPh sb="2" eb="5">
       <t>シモヒナタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B　鈴木さん</t>
+    <rPh sb="2" eb="4">
+      <t>スズキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1120,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1171,16 +1170,16 @@
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.4">
@@ -1201,16 +1200,16 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.4">
@@ -1231,16 +1230,16 @@
         <v>21</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
@@ -1261,7 +1260,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -1282,7 +1281,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -1303,7 +1302,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -1324,7 +1323,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -1345,7 +1344,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -1366,7 +1365,7 @@
         <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.4">
@@ -1387,7 +1386,7 @@
         <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.4">
@@ -1398,18 +1397,10 @@
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1420,16 +1411,16 @@
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -1441,16 +1432,16 @@
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
@@ -1462,16 +1453,16 @@
         <v>33</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1492,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1513,7 +1504,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1534,7 +1525,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1555,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1576,7 +1567,7 @@
         <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1597,7 +1588,7 @@
         <v>61</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1612,13 +1603,13 @@
         <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1633,13 +1624,13 @@
         <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1660,7 +1651,7 @@
         <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1681,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1702,7 +1693,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1723,7 +1714,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1744,7 +1735,7 @@
         <v>37</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1765,7 +1756,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1786,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1807,7 +1798,7 @@
         <v>53</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1819,16 +1810,16 @@
         <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1840,16 +1831,16 @@
         <v>33</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1861,16 +1852,16 @@
         <v>33</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1879,16 +1870,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1926,7 +1917,7 @@
         <v>46</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1936,16 +1927,16 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="G39" s="1"/>
     </row>
@@ -1955,16 +1946,16 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1974,16 +1965,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G41" s="1"/>
     </row>
